--- a/output/IBIUNA_17554200000199.xlsx
+++ b/output/IBIUNA_17554200000199.xlsx
@@ -1395,10 +1395,10 @@
         <v>44165</v>
       </c>
       <c r="B92">
-        <v>1.604314579</v>
+        <v>1.603649358</v>
       </c>
       <c r="C92">
-        <v>0.05804012686229454</v>
+        <v>0.05776987129604816</v>
       </c>
     </row>
   </sheetData>

--- a/output/IBIUNA_17554200000199.xlsx
+++ b/output/IBIUNA_17554200000199.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IBIUNA LONG BIASED FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1019 +383,746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41425</v>
       </c>
       <c r="B2">
-        <v>-0.01374166499999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41455</v>
       </c>
       <c r="B3">
-        <v>-0.06183070000000002</v>
-      </c>
-      <c r="C3">
         <v>-0.04875906574721123</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41486</v>
       </c>
       <c r="B4">
-        <v>-0.04474652400000001</v>
-      </c>
-      <c r="C4">
         <v>0.0182101204974412</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41517</v>
       </c>
       <c r="B5">
-        <v>-0.03890218499999998</v>
-      </c>
-      <c r="C5">
         <v>0.006118102835356742</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41547</v>
       </c>
       <c r="B6">
-        <v>-0.02045031800000008</v>
-      </c>
-      <c r="C6">
         <v>0.01919873993262589</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41578</v>
       </c>
       <c r="B7">
-        <v>0.01497428099999998</v>
-      </c>
-      <c r="C7">
         <v>0.03616416773028974</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41608</v>
       </c>
       <c r="B8">
-        <v>0.04160737599999997</v>
-      </c>
-      <c r="C8">
         <v>0.02624016736045753</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41639</v>
       </c>
       <c r="B9">
-        <v>0.05230953800000004</v>
-      </c>
-      <c r="C9">
         <v>0.01027466034380309</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41670</v>
       </c>
       <c r="B10">
-        <v>0.02209961799999993</v>
-      </c>
-      <c r="C10">
         <v>-0.02870820695725762</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41698</v>
       </c>
       <c r="B11">
-        <v>0.027105661</v>
-      </c>
-      <c r="C11">
         <v>0.004897803415478963</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41729</v>
       </c>
       <c r="B12">
-        <v>0.07453266400000014</v>
-      </c>
-      <c r="C12">
         <v>0.04617538857085535</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41759</v>
       </c>
       <c r="B13">
-        <v>0.08548218899999993</v>
-      </c>
-      <c r="C13">
         <v>0.01019003457674295</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41790</v>
       </c>
       <c r="B14">
-        <v>0.08960129500000003</v>
-      </c>
-      <c r="C14">
         <v>0.003794724631819957</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41820</v>
       </c>
       <c r="B15">
-        <v>0.1430660100000001</v>
-      </c>
-      <c r="C15">
         <v>0.04906814561008765</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41851</v>
       </c>
       <c r="B16">
-        <v>0.1635080390000001</v>
-      </c>
-      <c r="C16">
         <v>0.01788350700761376</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41882</v>
       </c>
       <c r="B17">
-        <v>0.2647637030000001</v>
-      </c>
-      <c r="C17">
         <v>0.08702618340912038</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41912</v>
       </c>
       <c r="B18">
-        <v>0.2094255819999999</v>
-      </c>
-      <c r="C18">
         <v>-0.04375372322018645</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41943</v>
       </c>
       <c r="B19">
-        <v>0.2689290719999999</v>
-      </c>
-      <c r="C19">
         <v>0.04919979441943045</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41973</v>
       </c>
       <c r="B20">
-        <v>0.3066152790000001</v>
-      </c>
-      <c r="C20">
         <v>0.02969922262132574</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42004</v>
       </c>
       <c r="B21">
-        <v>0.290637247</v>
-      </c>
-      <c r="C21">
         <v>-0.01222856663074423</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42035</v>
       </c>
       <c r="B22">
-        <v>0.2669679780000001</v>
-      </c>
-      <c r="C22">
         <v>-0.01833921115713777</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42063</v>
       </c>
       <c r="B23">
-        <v>0.3107242180000001</v>
-      </c>
-      <c r="C23">
         <v>0.03453618462328656</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42094</v>
       </c>
       <c r="B24">
-        <v>0.36153791</v>
-      </c>
-      <c r="C24">
         <v>0.03876764562841095</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42124</v>
       </c>
       <c r="B25">
-        <v>0.372586834</v>
-      </c>
-      <c r="C25">
         <v>0.008115032213829476</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42155</v>
       </c>
       <c r="B26">
-        <v>0.3521491019999998</v>
-      </c>
-      <c r="C26">
         <v>-0.01488993737499322</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42185</v>
       </c>
       <c r="B27">
-        <v>0.380144627</v>
-      </c>
-      <c r="C27">
         <v>0.02070446591917352</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42216</v>
       </c>
       <c r="B28">
-        <v>0.42202597</v>
-      </c>
-      <c r="C28">
         <v>0.03034561898852361</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42247</v>
       </c>
       <c r="B29">
-        <v>0.3952940760000001</v>
-      </c>
-      <c r="C29">
         <v>-0.01879845696488924</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42277</v>
       </c>
       <c r="B30">
-        <v>0.4097660970000001</v>
-      </c>
-      <c r="C30">
         <v>0.01037202210553922</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42308</v>
       </c>
       <c r="B31">
-        <v>0.362500222</v>
-      </c>
-      <c r="C31">
         <v>-0.03352745898811338</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42338</v>
       </c>
       <c r="B32">
-        <v>0.3392116970000001</v>
-      </c>
-      <c r="C32">
         <v>-0.01709249262786539</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42369</v>
       </c>
       <c r="B33">
-        <v>0.3338472939999999</v>
-      </c>
-      <c r="C33">
         <v>-0.004005642283454569</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42400</v>
       </c>
       <c r="B34">
-        <v>0.276891569</v>
-      </c>
-      <c r="C34">
         <v>-0.04270033403089091</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42429</v>
       </c>
       <c r="B35">
-        <v>0.314587672</v>
-      </c>
-      <c r="C35">
         <v>0.02952177296426339</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42460</v>
       </c>
       <c r="B36">
-        <v>0.351669411</v>
-      </c>
-      <c r="C36">
         <v>0.028207885856395</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42490</v>
       </c>
       <c r="B37">
-        <v>0.363944241</v>
-      </c>
-      <c r="C37">
         <v>0.009081236802509718</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42521</v>
       </c>
       <c r="B38">
-        <v>0.342276029</v>
-      </c>
-      <c r="C38">
         <v>-0.01588643534585665</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42551</v>
       </c>
       <c r="B39">
-        <v>0.3967614670000001</v>
-      </c>
-      <c r="C39">
         <v>0.04059182822522134</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42582</v>
       </c>
       <c r="B40">
-        <v>0.5139201230000001</v>
-      </c>
-      <c r="C40">
         <v>0.08387878586859676</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42613</v>
       </c>
       <c r="B41">
-        <v>0.486025846</v>
-      </c>
-      <c r="C41">
         <v>-0.018425197324628</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42643</v>
       </c>
       <c r="B42">
-        <v>0.506965495</v>
-      </c>
-      <c r="C42">
         <v>0.01409103957132651</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42674</v>
       </c>
       <c r="B43">
-        <v>0.612161347</v>
-      </c>
-      <c r="C43">
         <v>0.06980641053098569</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42704</v>
       </c>
       <c r="B44">
-        <v>0.5393353339999998</v>
-      </c>
-      <c r="C44">
         <v>-0.0451729060093885</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42735</v>
       </c>
       <c r="B45">
-        <v>0.5153273039999999</v>
-      </c>
-      <c r="C45">
         <v>-0.01559636127991315</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42766</v>
       </c>
       <c r="B46">
-        <v>0.6181024660000001</v>
-      </c>
-      <c r="C46">
         <v>0.06782373796651409</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42794</v>
       </c>
       <c r="B47">
-        <v>0.667420924</v>
-      </c>
-      <c r="C47">
         <v>0.03047919339862126</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42825</v>
       </c>
       <c r="B48">
-        <v>0.650336107</v>
-      </c>
-      <c r="C48">
         <v>-0.01024625321302497</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42855</v>
       </c>
       <c r="B49">
-        <v>0.665312412</v>
-      </c>
-      <c r="C49">
         <v>0.009074699957467569</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42886</v>
       </c>
       <c r="B50">
-        <v>0.623768839</v>
-      </c>
-      <c r="C50">
         <v>-0.02494641407860954</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42916</v>
       </c>
       <c r="B51">
-        <v>0.6500060809999999</v>
-      </c>
-      <c r="C51">
         <v>0.0161582371639537</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42947</v>
       </c>
       <c r="B52">
-        <v>0.7347293800000001</v>
-      </c>
-      <c r="C52">
         <v>0.05134726470138395</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42978</v>
       </c>
       <c r="B53">
-        <v>0.8415626940000001</v>
-      </c>
-      <c r="C53">
         <v>0.0615850029587901</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43008</v>
       </c>
       <c r="B54">
-        <v>0.924620631</v>
-      </c>
-      <c r="C54">
         <v>0.04510187856792025</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43039</v>
       </c>
       <c r="B55">
-        <v>0.898659772</v>
-      </c>
-      <c r="C55">
         <v>-0.01348881882582298</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43069</v>
       </c>
       <c r="B56">
-        <v>0.8434867890000002</v>
-      </c>
-      <c r="C56">
         <v>-0.02905890977080217</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43100</v>
       </c>
       <c r="B57">
-        <v>0.9098820910000001</v>
-      </c>
-      <c r="C57">
         <v>0.03601615286650151</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43131</v>
       </c>
       <c r="B58">
-        <v>1.060452501</v>
-      </c>
-      <c r="C58">
         <v>0.07883754222814998</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43159</v>
       </c>
       <c r="B59">
-        <v>1.092881729</v>
-      </c>
-      <c r="C59">
         <v>0.01573888647482113</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43190</v>
       </c>
       <c r="B60">
-        <v>1.153569365</v>
-      </c>
-      <c r="C60">
         <v>0.02899716460757529</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43220</v>
       </c>
       <c r="B61">
-        <v>1.220041373</v>
-      </c>
-      <c r="C61">
         <v>0.03086597027256643</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43251</v>
       </c>
       <c r="B62">
-        <v>1.034858365</v>
-      </c>
-      <c r="C62">
         <v>-0.08341421482148215</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43281</v>
       </c>
       <c r="B63">
-        <v>0.9337716</v>
-      </c>
-      <c r="C63">
         <v>-0.04967754352770382</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43312</v>
       </c>
       <c r="B64">
-        <v>1.048703356</v>
-      </c>
-      <c r="C64">
         <v>0.05943398692999713</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43343</v>
       </c>
       <c r="B65">
-        <v>0.9289084009999999</v>
-      </c>
-      <c r="C65">
         <v>-0.05847354847599517</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43373</v>
       </c>
       <c r="B66">
-        <v>0.9118400719999999</v>
-      </c>
-      <c r="C66">
         <v>-0.008848698565028457</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43404</v>
       </c>
       <c r="B67">
-        <v>1.127181109</v>
-      </c>
-      <c r="C67">
         <v>0.1126354866988057</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43434</v>
       </c>
       <c r="B68">
-        <v>1.184706734</v>
-      </c>
-      <c r="C68">
         <v>0.02704312517472629</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43465</v>
       </c>
       <c r="B69">
-        <v>1.169329182</v>
-      </c>
-      <c r="C69">
         <v>-0.007038725958355752</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43496</v>
       </c>
       <c r="B70">
-        <v>1.35553034</v>
-      </c>
-      <c r="C70">
         <v>0.08583351920261961</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43524</v>
       </c>
       <c r="B71">
-        <v>1.319112059</v>
-      </c>
-      <c r="C71">
         <v>-0.01546075649358858</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43555</v>
       </c>
       <c r="B72">
-        <v>1.28273224</v>
-      </c>
-      <c r="C72">
         <v>-0.01568696038590167</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43585</v>
       </c>
       <c r="B73">
-        <v>1.294745049</v>
-      </c>
-      <c r="C73">
         <v>0.00526246959214105</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43616</v>
       </c>
       <c r="B74">
-        <v>1.305828807</v>
-      </c>
-      <c r="C74">
         <v>0.004830060753298282</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43646</v>
       </c>
       <c r="B75">
-        <v>1.440439802</v>
-      </c>
-      <c r="C75">
         <v>0.05837857285473658</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43677</v>
       </c>
       <c r="B76">
-        <v>1.532162274</v>
-      </c>
-      <c r="C76">
         <v>0.03758440258384232</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43708</v>
       </c>
       <c r="B77">
-        <v>1.54686122</v>
-      </c>
-      <c r="C77">
         <v>0.005804898900409139</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43738</v>
       </c>
       <c r="B78">
-        <v>1.548980846</v>
-      </c>
-      <c r="C78">
         <v>0.0008322502943445276</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43769</v>
       </c>
       <c r="B79">
-        <v>1.650435241</v>
-      </c>
-      <c r="C79">
         <v>0.03980194482795274</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43799</v>
       </c>
       <c r="B80">
-        <v>1.740140166</v>
-      </c>
-      <c r="C80">
         <v>0.03384535626916652</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43830</v>
       </c>
       <c r="B81">
-        <v>1.951674157</v>
-      </c>
-      <c r="C81">
         <v>0.0771982373838902</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43861</v>
       </c>
       <c r="B82">
-        <v>2.043978554</v>
-      </c>
-      <c r="C82">
         <v>0.03127187897115857</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43890</v>
       </c>
       <c r="B83">
-        <v>1.883665754</v>
-      </c>
-      <c r="C83">
         <v>-0.0526655484445967</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43921</v>
       </c>
       <c r="B84">
-        <v>0.9549452709999999</v>
-      </c>
-      <c r="C84">
         <v>-0.3220624587685831</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43951</v>
       </c>
       <c r="B85">
-        <v>1.259327729</v>
-      </c>
-      <c r="C85">
         <v>0.1556987106060015</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43982</v>
       </c>
       <c r="B86">
-        <v>1.322399115</v>
-      </c>
-      <c r="C86">
         <v>0.0279159969536229</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44012</v>
       </c>
       <c r="B87">
-        <v>1.479386442</v>
-      </c>
-      <c r="C87">
         <v>0.06759704909722197</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44043</v>
       </c>
       <c r="B88">
-        <v>1.646548687</v>
-      </c>
-      <c r="C88">
         <v>0.06742081112017306</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44074</v>
       </c>
       <c r="B89">
-        <v>1.603554727</v>
-      </c>
-      <c r="C89">
         <v>-0.01624529343109715</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44104</v>
       </c>
       <c r="B90">
-        <v>1.519110164</v>
-      </c>
-      <c r="C90">
         <v>-0.03243433376847171</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44135</v>
       </c>
       <c r="B91">
-        <v>1.461451615</v>
-      </c>
-      <c r="C91">
         <v>-0.02288845872006084</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44165</v>
       </c>
       <c r="B92">
-        <v>1.603649358</v>
-      </c>
-      <c r="C92">
-        <v>0.05776987129604816</v>
+        <v>0.04352442207156693</v>
       </c>
     </row>
   </sheetData>
